--- a/task.xlsx
+++ b/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>3090Ti</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,26 @@
   </si>
   <si>
     <t>超龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,141 +391,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>4541</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>4661</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>801</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>801</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>271</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2761</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1101</v>
+        <v>2761</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1101</v>
       </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1101</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4071</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1591</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1201</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>SUM(B4:B11)</f>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B5:B12)</f>
         <v>12898</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>12898/3</f>
         <v>4299.333333333333</v>
       </c>

--- a/task.xlsx
+++ b/task.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>3090Ti</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>任务是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,9 +463,6 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
